--- a/Base/Teams/Raiders/Players Stats.xlsx
+++ b/Base/Teams/Raiders/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Raiders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Raiders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E1D329-C859-454B-B3D6-AA5257369799}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8713A6A3-F76F-4FF8-9B41-7DC7754A15C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>D.Jackson</t>
+  </si>
+  <si>
+    <t>D.Helm</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1047,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763BC04A-82E2-43FD-B050-62440FD9F359}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,6 +1215,38 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
